--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1298040.257834637</v>
+        <v>-1299938.489938761</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>371.7277390186092</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>322.1356489030811</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229386</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>68.21729926015354</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>27.61199297579827</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>43.15286741048943</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>240.4974947620102</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>34.10050473850163</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>173.931378435075</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>307.7177011065001</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>99.55842558718328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>201.089163843681</v>
+        <v>2.172832184889865</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>12.85506030234966</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>184.0548885600477</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>137.3733859008877</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>42.02510219382525</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,16 +2005,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>75.57809216555836</v>
+        <v>5.562624396424889</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2132,7 +2132,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>28.7259432220875</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>158.7833198027077</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>36.5966981165643</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>221.9323490168575</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2609,7 +2609,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>157.2425576766698</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>181.3807313307303</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898666</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692856</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373699</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415255</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692856</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373635</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463175</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692856</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3749,13 +3749,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1139.506187451444</v>
+        <v>1117.513150920516</v>
       </c>
       <c r="C2" t="n">
-        <v>770.5436705110326</v>
+        <v>1117.513150920516</v>
       </c>
       <c r="D2" t="n">
-        <v>770.5436705110326</v>
+        <v>1117.513150920516</v>
       </c>
       <c r="E2" t="n">
-        <v>770.5436705110326</v>
+        <v>1117.513150920516</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>706.5272461309082</v>
       </c>
       <c r="G2" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="X2" t="n">
-        <v>1916.245359491378</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y2" t="n">
-        <v>1526.106027515566</v>
+        <v>1117.513150920516</v>
       </c>
     </row>
     <row r="3">
@@ -4383,73 +4383,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598712</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517454</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152627</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>340.388532134052</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>340.388532134052</v>
       </c>
       <c r="D4" t="n">
         <v>190.2718927217162</v>
@@ -4483,55 +4483,55 @@
         <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>629.8057021710126</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>629.8057021710126</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>629.8057021710126</v>
       </c>
       <c r="W4" t="n">
-        <v>411.0644718652463</v>
+        <v>340.388532134052</v>
       </c>
       <c r="X4" t="n">
-        <v>411.0644718652463</v>
+        <v>340.388532134052</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.2718927217162</v>
+        <v>340.388532134052</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1358.140854479381</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="C5" t="n">
-        <v>989.1783375389698</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D5" t="n">
-        <v>989.1783375389698</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>989.1783375389698</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>578.1924327493623</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,37 +4580,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2224.752638628378</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>1981.825876242509</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519315</v>
+        <v>1629.057220972395</v>
       </c>
       <c r="X5" t="n">
-        <v>2134.880026519315</v>
+        <v>1255.591462711315</v>
       </c>
       <c r="Y5" t="n">
-        <v>1744.740694543503</v>
+        <v>865.4521307355029</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>246.1363086691491</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C7" t="n">
-        <v>246.1363086691491</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>246.1363086691491</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>246.1363086691491</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F7" t="n">
-        <v>246.1363086691491</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V7" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W7" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X7" t="n">
-        <v>246.1363086691491</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="Y7" t="n">
-        <v>246.1363086691491</v>
+        <v>552.4407231609042</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1210.087414675782</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W8" t="n">
-        <v>2070.717079250664</v>
+        <v>1625.320969913277</v>
       </c>
       <c r="X8" t="n">
-        <v>1697.251320989584</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="Y8" t="n">
-        <v>1596.687254739904</v>
+        <v>1251.855211652197</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4899,7 +4899,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>696.5172850753191</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694738</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>696.5172850753191</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>696.5172850753191</v>
       </c>
     </row>
     <row r="11">
@@ -5018,28 +5018,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514081</v>
@@ -5051,37 +5051,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5106,37 +5106,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864553</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O12" t="n">
-        <v>1818.397748747283</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2338.69837048303</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1006.27269220504</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C13" t="n">
-        <v>837.3365092771334</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D13" t="n">
-        <v>687.2198698647976</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1201.927138271195</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>978.1417230607008</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>689.013084274259</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.92115703528</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="W13" t="n">
-        <v>1187.92115703528</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.92115703528</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="Y13" t="n">
-        <v>1187.92115703528</v>
+        <v>434.3285960683721</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5294,34 +5294,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>964.1357418247858</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C16" t="n">
-        <v>825.3747459653033</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D16" t="n">
-        <v>675.2581065529675</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1456.466672382321</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1456.466672382321</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247858</v>
+        <v>1167.33803359588</v>
       </c>
       <c r="V16" t="n">
-        <v>964.1357418247858</v>
+        <v>912.6535453899926</v>
       </c>
       <c r="W16" t="n">
-        <v>964.1357418247858</v>
+        <v>623.236375353032</v>
       </c>
       <c r="X16" t="n">
-        <v>964.1357418247858</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="Y16" t="n">
-        <v>964.1357418247858</v>
+        <v>395.2468244550147</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,40 +5525,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>471.5883316929525</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="C19" t="n">
-        <v>471.5883316929525</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="D19" t="n">
-        <v>321.4716922806167</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="E19" t="n">
-        <v>173.5585986982236</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="F19" t="n">
-        <v>173.5585986982236</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.787631771461</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W19" t="n">
-        <v>920.3704617344999</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="X19" t="n">
-        <v>692.3809108364826</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="Y19" t="n">
-        <v>471.5883316929525</v>
+        <v>102.8359039819272</v>
       </c>
     </row>
     <row r="20">
@@ -5729,67 +5729,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5829,22 +5829,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>441.2984649031105</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="C22" t="n">
-        <v>412.2823606383756</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2823606383756</v>
+        <v>404.494230678103</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>404.494230678103</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>257.6042831801926</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5941,19 +5941,19 @@
         <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>1387.841167119728</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V22" t="n">
-        <v>1133.156678913841</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W22" t="n">
-        <v>843.7395088768803</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="X22" t="n">
-        <v>843.7395088768803</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="Y22" t="n">
-        <v>622.9469297333502</v>
+        <v>554.6108700904388</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.210845262961</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V25" t="n">
-        <v>820.5263570570741</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W25" t="n">
-        <v>531.1091870201135</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X25" t="n">
-        <v>303.1196361220962</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y25" t="n">
-        <v>303.1196361220962</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,16 +6221,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6248,22 +6248,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1340.085404217832</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1340.085404217832</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>1050.956765431391</v>
+        <v>980.8428919792032</v>
       </c>
       <c r="V28" t="n">
-        <v>796.2722772255036</v>
+        <v>726.1584037733163</v>
       </c>
       <c r="W28" t="n">
-        <v>506.8551071885429</v>
+        <v>436.7412337363557</v>
       </c>
       <c r="X28" t="n">
-        <v>278.8655562905255</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="29">
@@ -6449,49 +6449,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6528,13 +6528,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6543,25 +6543,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G31" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
@@ -6619,13 +6619,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6661,10 +6661,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6716,34 +6716,34 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982977</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6950,37 +6950,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
         <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.193690363625</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7138,7 +7138,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7187,22 +7187,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7239,13 +7239,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7254,19 +7254,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
         <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
         <v>221.529509210313</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7345,19 +7345,19 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7388,25 +7388,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7418,7 +7418,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
         <v>3183.709822619127</v>
@@ -7427,31 +7427,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,16 +7476,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E43" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7591,13 +7591,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7673,25 +7673,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7789,10 +7789,10 @@
         <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,7 +7846,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010318</v>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142011</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>283.6093329825492</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>199.7396287231155</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,28 +9243,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>124.3400780863229</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208061</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298383</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928317</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1.284835336346832</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>91.64852111771387</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22765,10 +22765,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>82.51931018359242</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>133.5789023442195</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>13.86592142355559</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520986</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>29.87343519774018</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>155.895707789778</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23893,16 +23893,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>90.91547629781923</v>
+        <v>160.9309440669527</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>138.5208778765403</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>7.71024866066989</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24181,7 +24181,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>143.235282065373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>64.30500338171984</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>40.67825230693342</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>104.856621067847</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>-4.263256414560601e-13</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>6.394884621840902e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-4.405364961712621e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1310688.749040167</v>
+        <v>1310688.749040166</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1258421.929126101</v>
+        <v>1258421.9291261</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1258421.9291261</v>
+        <v>1258421.929126101</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1258421.9291261</v>
+        <v>1258421.929126101</v>
       </c>
     </row>
     <row r="11">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122046.641203581</v>
+        <v>122046.6412035809</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796424</v>
@@ -26320,10 +26320,10 @@
         <v>123156.2654796425</v>
       </c>
       <c r="E2" t="n">
-        <v>117308.7179213126</v>
+        <v>117308.7179213125</v>
       </c>
       <c r="F2" t="n">
-        <v>117308.7179213126</v>
+        <v>117308.7179213125</v>
       </c>
       <c r="G2" t="n">
         <v>117308.7179213126</v>
@@ -26344,16 +26344,16 @@
         <v>123156.2654796425</v>
       </c>
       <c r="M2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="N2" t="n">
         <v>123156.2654796425</v>
       </c>
       <c r="O2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="P2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>54505.51210371248</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>143694.8020290738</v>
+        <v>143694.8020290736</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007443</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007498</v>
+        <v>7916.731656007456</v>
       </c>
       <c r="H4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="I4" t="n">
-        <v>7916.731656007414</v>
-      </c>
       <c r="J4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="K4" t="n">
-        <v>30335.51889732794</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732787</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732794</v>
+        <v>30335.5188973279</v>
       </c>
       <c r="N4" t="n">
         <v>30335.51889732795</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732801</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732795</v>
       </c>
     </row>
     <row r="5">
@@ -26467,46 +26467,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.10582002542</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-694475.1181034466</v>
+        <v>-694493.6118413813</v>
       </c>
       <c r="C6" t="n">
         <v>-107619.8612996879</v>
@@ -26528,40 +26528,40 @@
         <v>-107619.8612996878</v>
       </c>
       <c r="E6" t="n">
-        <v>-507755.3761603074</v>
+        <v>-507852.8352862798</v>
       </c>
       <c r="F6" t="n">
-        <v>17404.66031658849</v>
+        <v>17307.20119061631</v>
       </c>
       <c r="G6" t="n">
-        <v>17404.66031658849</v>
+        <v>17307.20119061631</v>
       </c>
       <c r="H6" t="n">
-        <v>17404.66031658844</v>
+        <v>17307.20119061628</v>
       </c>
       <c r="I6" t="n">
-        <v>17404.66031658834</v>
+        <v>17307.20119061621</v>
       </c>
       <c r="J6" t="n">
-        <v>-159018.5588760045</v>
+        <v>-159116.0180019768</v>
       </c>
       <c r="K6" t="n">
-        <v>-59399.87134142329</v>
+        <v>-59399.87134142331</v>
       </c>
       <c r="L6" t="n">
-        <v>-4894.359237710902</v>
+        <v>-4894.359237710873</v>
       </c>
       <c r="M6" t="n">
-        <v>-139695.3744715478</v>
+        <v>-139695.374471548</v>
       </c>
       <c r="N6" t="n">
+        <v>-4894.3592377108</v>
+      </c>
+      <c r="O6" t="n">
         <v>-4894.359237710829</v>
       </c>
-      <c r="O6" t="n">
-        <v>-4894.359237710873</v>
-      </c>
       <c r="P6" t="n">
-        <v>-59399.87134142331</v>
+        <v>-59399.87134142326</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964061</v>
       </c>
-      <c r="L2" t="n">
-        <v>68.13189012964061</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964061</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,43 +26735,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26808,7 +26808,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26817,10 +26817,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="M4" t="n">
         <v>1215.213643253574</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990168</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>381.4490063271338</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>35.14830672310222</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-5.755396159656812e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27558,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>156.8178061979307</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>176.3916951772003</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>370.6313026103056</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>87.25476370812473</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>133.2092975205493</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>51.77827695396212</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>41.52326761091291</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>286.6795130688703</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,13 +28020,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>24.6204915453562</v>
+        <v>223.5368232041473</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-3.770613451100265e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="32">
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="41">
@@ -30469,13 +30469,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31042,46 +31042,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31218,28 +31218,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,43 +31282,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,10 +34857,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M4" t="n">
         <v>146.3614835535656</v>
@@ -34869,10 +34869,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>565.9730352236573</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>287.7526615081896</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36212,10 +36212,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523309</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37002,10 +37002,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,7 +37637,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
